--- a/with logs for unschedule with saturday sunday/excel_schedules/room_133_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_133_genetic_schedule.xlsx
@@ -658,7 +658,7 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>DB 325 - Database Management
 2A
@@ -672,7 +672,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
